--- a/intents.xlsx
+++ b/intents.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">trip</t>
   </si>
@@ -28,28 +28,64 @@
     <t xml:space="preserve">What are the available planes to Madrid ?</t>
   </si>
   <si>
-    <t xml:space="preserve">I would like to book a flight to Paris.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I want to book a trip.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can I buy a ticket to New-York ?</t>
+    <t xml:space="preserve">I need a cheap flight to Mascow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would like to book a flight to Paris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I buy a ticket to New-York ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I plan to travel for the following days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to book a trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you help me prepare my trip ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I need to prepare a journey.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’m going on holidays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I leave from Paris tomorrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I plan a trip.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’d like to travel.</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">My name is Bob</t>
+    <t xml:space="preserve">My name is Bob.</t>
   </si>
   <si>
     <t xml:space="preserve">greetings</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello</t>
+    <t xml:space="preserve">Good afternoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good morning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What’s up ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hey mate !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello bot.</t>
   </si>
 </sst>
 </file>
@@ -160,10 +196,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -202,29 +238,89 @@
       </c>
       <c r="B5" s="2"/>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
